--- a/data/trans_orig/IP09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E9B3441-D448-47E9-A640-17625DD3647B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90B6558D-8A39-4ED8-94DF-F9ED3C2AB3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{761BED38-6E86-485F-BB65-6F0190E8E0C3}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CE4B5B0C-80BA-40C3-A771-92D26C2977B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>48,85%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
     <t>71,2%</t>
   </si>
   <si>
@@ -359,6 +359,60 @@
     <t>40,64%</t>
   </si>
   <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
     <t>54,71%</t>
   </si>
   <si>
@@ -413,60 +467,6 @@
     <t>54,17%</t>
   </si>
   <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
     <t>66,56%</t>
   </si>
   <si>
@@ -572,6 +572,60 @@
     <t>55,27%</t>
   </si>
   <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
     <t>51,04%</t>
   </si>
   <si>
@@ -626,60 +680,6 @@
     <t>62,06%</t>
   </si>
   <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
     <t>53,79%</t>
   </si>
   <si>
@@ -791,6 +791,60 @@
     <t>40,52%</t>
   </si>
   <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
     <t>63,62%</t>
   </si>
   <si>
@@ -837,60 +891,6 @@
   </si>
   <si>
     <t>44,47%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
   </si>
   <si>
     <t>68,15%</t>
@@ -1336,7 +1336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2380744D-3F0F-4BFA-812A-832248D82CD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEFE513-0B78-4CB2-AA28-5452CC7116F4}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1609,10 +1609,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>15376</v>
+        <v>20203</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1624,10 +1624,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>10285</v>
+        <v>18564</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1639,10 +1639,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N7" s="7">
-        <v>25661</v>
+        <v>38767</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1660,10 +1660,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>10036</v>
+        <v>5974</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1675,10 +1675,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>5210</v>
+        <v>4020</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1690,10 +1690,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>15246</v>
+        <v>9994</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1711,10 +1711,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7">
-        <v>25412</v>
+        <v>26177</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1726,10 +1726,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I9" s="7">
-        <v>15495</v>
+        <v>22584</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1741,10 +1741,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="N9" s="7">
-        <v>40907</v>
+        <v>48761</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1764,10 +1764,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>20203</v>
+        <v>15376</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1779,10 +1779,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>18564</v>
+        <v>10285</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1794,10 +1794,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="N10" s="7">
-        <v>38767</v>
+        <v>25661</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1815,10 +1815,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>5974</v>
+        <v>10036</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1830,10 +1830,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>4020</v>
+        <v>5210</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1845,10 +1845,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N11" s="7">
-        <v>9994</v>
+        <v>15246</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1866,10 +1866,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7">
-        <v>26177</v>
+        <v>25412</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1881,10 +1881,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I12" s="7">
-        <v>22584</v>
+        <v>15495</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1896,10 +1896,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="N12" s="7">
-        <v>48761</v>
+        <v>40907</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2082,7 +2082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC439CF-99EE-4074-9AD5-C0BC3FF8293D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B5D14F-45AA-483B-BAA7-88801F2F1305}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2355,10 +2355,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7">
-        <v>16975</v>
+        <v>22749</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>106</v>
@@ -2370,10 +2370,10 @@
         <v>108</v>
       </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>13697</v>
+        <v>16773</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>109</v>
@@ -2385,10 +2385,10 @@
         <v>111</v>
       </c>
       <c r="M7" s="7">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="N7" s="7">
-        <v>30672</v>
+        <v>39522</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>112</v>
@@ -2406,10 +2406,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>14051</v>
+        <v>6532</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>115</v>
@@ -2421,10 +2421,10 @@
         <v>117</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I8" s="7">
-        <v>8159</v>
+        <v>10065</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>118</v>
@@ -2436,10 +2436,10 @@
         <v>120</v>
       </c>
       <c r="M8" s="7">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N8" s="7">
-        <v>22210</v>
+        <v>16597</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>121</v>
@@ -2457,10 +2457,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7">
-        <v>31026</v>
+        <v>29281</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2472,10 +2472,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I9" s="7">
-        <v>21856</v>
+        <v>26838</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2490,7 +2490,7 @@
         <v>77</v>
       </c>
       <c r="N9" s="7">
-        <v>52882</v>
+        <v>56119</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2510,10 +2510,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>22749</v>
+        <v>16975</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>124</v>
@@ -2525,10 +2525,10 @@
         <v>126</v>
       </c>
       <c r="H10" s="7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>16773</v>
+        <v>13697</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>127</v>
@@ -2540,10 +2540,10 @@
         <v>129</v>
       </c>
       <c r="M10" s="7">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N10" s="7">
-        <v>39522</v>
+        <v>30672</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>130</v>
@@ -2561,10 +2561,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>6532</v>
+        <v>14051</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>133</v>
@@ -2576,10 +2576,10 @@
         <v>135</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>10065</v>
+        <v>8159</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>136</v>
@@ -2591,10 +2591,10 @@
         <v>138</v>
       </c>
       <c r="M11" s="7">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N11" s="7">
-        <v>16597</v>
+        <v>22210</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>139</v>
@@ -2612,10 +2612,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D12" s="7">
-        <v>29281</v>
+        <v>31026</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2627,10 +2627,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I12" s="7">
-        <v>26838</v>
+        <v>21856</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2645,7 +2645,7 @@
         <v>77</v>
       </c>
       <c r="N12" s="7">
-        <v>56119</v>
+        <v>52882</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2828,7 +2828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBDF679-AFC4-437A-8FC5-1854AA6A4E01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C29DF1-FAFC-4A4F-96A8-F3C9575CCE6C}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3101,10 +3101,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>8012</v>
+        <v>6899</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>177</v>
@@ -3116,10 +3116,10 @@
         <v>179</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>8379</v>
+        <v>10111</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>180</v>
@@ -3131,10 +3131,10 @@
         <v>182</v>
       </c>
       <c r="M7" s="7">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N7" s="7">
-        <v>16391</v>
+        <v>17010</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>183</v>
@@ -3152,10 +3152,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>7684</v>
+        <v>7603</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>186</v>
@@ -3167,10 +3167,10 @@
         <v>188</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>6097</v>
+        <v>4514</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>189</v>
@@ -3182,10 +3182,10 @@
         <v>191</v>
       </c>
       <c r="M8" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N8" s="7">
-        <v>13782</v>
+        <v>12117</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>192</v>
@@ -3206,7 +3206,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="7">
-        <v>15696</v>
+        <v>14502</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3218,10 +3218,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I9" s="7">
-        <v>14476</v>
+        <v>14625</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3233,10 +3233,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N9" s="7">
-        <v>30173</v>
+        <v>29127</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3256,10 +3256,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>6899</v>
+        <v>8012</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>195</v>
@@ -3271,10 +3271,10 @@
         <v>197</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>10111</v>
+        <v>8379</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>198</v>
@@ -3286,10 +3286,10 @@
         <v>200</v>
       </c>
       <c r="M10" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>17010</v>
+        <v>16391</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>201</v>
@@ -3307,10 +3307,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>7603</v>
+        <v>7684</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>204</v>
@@ -3322,10 +3322,10 @@
         <v>206</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>4514</v>
+        <v>6097</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>207</v>
@@ -3337,10 +3337,10 @@
         <v>209</v>
       </c>
       <c r="M11" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N11" s="7">
-        <v>12117</v>
+        <v>13782</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>210</v>
@@ -3361,7 +3361,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="7">
-        <v>14502</v>
+        <v>15696</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3373,10 +3373,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I12" s="7">
-        <v>14625</v>
+        <v>14476</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3388,10 +3388,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N12" s="7">
-        <v>29127</v>
+        <v>30173</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3574,7 +3574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2110D45-A91E-4CE9-96B7-8C3D31F7014A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7E7224-4DB0-4AC3-9AC5-C561D631E935}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3847,10 +3847,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>29219</v>
+        <v>17669</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>250</v>
@@ -3862,10 +3862,10 @@
         <v>252</v>
       </c>
       <c r="H7" s="7">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>25965</v>
+        <v>5341</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>253</v>
@@ -3877,10 +3877,10 @@
         <v>255</v>
       </c>
       <c r="M7" s="7">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="N7" s="7">
-        <v>55185</v>
+        <v>23010</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>256</v>
@@ -3889,7 +3889,7 @@
         <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>96</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,49 +3898,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>16707</v>
+        <v>6840</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I8" s="7">
-        <v>11134</v>
+        <v>6364</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N8" s="7">
-        <v>27840</v>
+        <v>13204</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,10 +3949,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D9" s="7">
-        <v>45926</v>
+        <v>24509</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3964,10 +3964,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>37099</v>
+        <v>11705</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3979,10 +3979,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="N9" s="7">
-        <v>83025</v>
+        <v>36214</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4002,49 +4002,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7">
-        <v>17669</v>
+        <v>29219</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="I10" s="7">
-        <v>5341</v>
+        <v>25965</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="N10" s="7">
-        <v>23010</v>
+        <v>55185</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,46 +4053,46 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>6840</v>
+        <v>16707</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>6364</v>
+        <v>11134</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N11" s="7">
-        <v>13204</v>
+        <v>27840</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>104</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>283</v>
@@ -4104,10 +4104,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D12" s="7">
-        <v>24509</v>
+        <v>45926</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4119,10 +4119,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I12" s="7">
-        <v>11705</v>
+        <v>37099</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4134,10 +4134,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="N12" s="7">
-        <v>36214</v>
+        <v>83025</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90B6558D-8A39-4ED8-94DF-F9ED3C2AB3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD0EBE1B-526F-489F-B4F4-265B26B3CA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CE4B5B0C-80BA-40C3-A771-92D26C2977B5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DA63F55B-77B6-4080-8591-8C54275654FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="302">
-  <si>
-    <t>Menores según padecer actualmente dolencia o enfermedad continuada en 2007 (Tasa respuesta: 9,84%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2007 (Tasa respuesta: 9,84%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,883 +68,1081 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2012 (Tasa respuesta: 12,67%)</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
   </si>
   <si>
     <t>80,34%</t>
   </si>
   <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>Menores según padecer actualmente dolencia o enfermedad continuada en 2012 (Tasa respuesta: 12,67%)</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
   </si>
   <si>
     <t>66,56%</t>
   </si>
   <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
   </si>
   <si>
     <t>65,73%</t>
   </si>
   <si>
-    <t>57,16%</t>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
   </si>
   <si>
     <t>66,19%</t>
   </si>
   <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>Menores según padecer actualmente dolencia o enfermedad continuada en 2015 (Tasa respuesta: 6,87%)</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2015 (Tasa respuesta: 6,87%)</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
   </si>
   <si>
     <t>53,79%</t>
   </si>
   <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
   </si>
   <si>
     <t>59,52%</t>
   </si>
   <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
   </si>
   <si>
     <t>56,53%</t>
   </si>
   <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>Menores según padecer actualmente dolencia o enfermedad continuada en 2023 (Tasa respuesta: 10,83%)</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2023 (Tasa respuesta: 10,83%)</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
   </si>
   <si>
     <t>68,15%</t>
   </si>
   <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
+    <t>77,78%</t>
   </si>
   <si>
     <t>64,98%</t>
   </si>
   <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
   </si>
   <si>
     <t>66,88%</t>
   </si>
   <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
+    <t>74,17%</t>
   </si>
 </sst>
 </file>
@@ -955,7 +1153,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1051,39 +1249,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1135,7 +1333,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1246,13 +1444,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1261,6 +1452,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1325,19 +1523,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEFE513-0B78-4CB2-AA28-5452CC7116F4}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574379EA-F8DF-4271-AEE7-EB85F04DE7E6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1454,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>23857</v>
+        <v>4594</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1469,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>14593</v>
+        <v>2949</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1484,10 +1702,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>38451</v>
+        <v>7543</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1505,10 +1723,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>8031</v>
+        <v>10936</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1520,10 +1738,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>3571</v>
+        <v>7056</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1535,10 +1753,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N5" s="7">
-        <v>11602</v>
+        <v>17992</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1556,10 +1774,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D6" s="7">
-        <v>31888</v>
+        <v>15530</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1571,10 +1789,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>18164</v>
+        <v>10005</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1586,10 +1804,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="N6" s="7">
-        <v>50053</v>
+        <v>25535</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1609,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>20203</v>
+        <v>7400</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1624,10 +1842,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>18564</v>
+        <v>3945</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1639,10 +1857,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>38767</v>
+        <v>11346</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1660,10 +1878,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7">
-        <v>5974</v>
+        <v>27741</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1675,10 +1893,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I8" s="7">
-        <v>4020</v>
+        <v>20720</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1690,10 +1908,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="N8" s="7">
-        <v>9994</v>
+        <v>48460</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1711,10 +1929,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D9" s="7">
-        <v>26177</v>
+        <v>35141</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1726,10 +1944,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I9" s="7">
-        <v>22584</v>
+        <v>24665</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1741,10 +1959,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="N9" s="7">
-        <v>48761</v>
+        <v>59806</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1764,10 +1982,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>15376</v>
+        <v>6151</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1779,10 +1997,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>10285</v>
+        <v>3427</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1794,10 +2012,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>25661</v>
+        <v>9578</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1815,10 +2033,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>10036</v>
+        <v>8887</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1830,10 +2048,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I11" s="7">
-        <v>5210</v>
+        <v>10272</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1845,10 +2063,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N11" s="7">
-        <v>15246</v>
+        <v>19159</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1866,10 +2084,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D12" s="7">
-        <v>25412</v>
+        <v>15038</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1881,10 +2099,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I12" s="7">
-        <v>15495</v>
+        <v>13699</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1896,10 +2114,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="N12" s="7">
-        <v>40907</v>
+        <v>28737</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1913,55 +2131,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>59436</v>
+        <v>5896</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>43443</v>
+        <v>2479</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>102879</v>
+        <v>8375</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,49 +2188,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>24042</v>
+        <v>11873</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>12800</v>
+        <v>5395</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N14" s="7">
-        <v>36842</v>
+        <v>17268</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,55 +2239,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>27</v>
+      </c>
+      <c r="D15" s="7">
+        <v>17769</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>12</v>
+      </c>
+      <c r="I15" s="7">
+        <v>7874</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>39</v>
+      </c>
+      <c r="N15" s="7">
+        <v>25643</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7">
+        <v>24042</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>19</v>
+      </c>
+      <c r="I16" s="7">
+        <v>12800</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>55</v>
+      </c>
+      <c r="N16" s="7">
+        <v>36842</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>88</v>
+      </c>
+      <c r="D17" s="7">
+        <v>59436</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
+        <v>64</v>
+      </c>
+      <c r="I17" s="7">
+        <v>43443</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="7">
+        <v>152</v>
+      </c>
+      <c r="N17" s="7">
+        <v>102879</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>124</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>83478</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>83</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>56243</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>207</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>139721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2082,8 +2461,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B5D14F-45AA-483B-BAA7-88801F2F1305}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6F7BEA-4D08-4379-9546-81E2DE0D3A45}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2099,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2200,49 +2579,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>28444</v>
+        <v>7344</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>24002</v>
+        <v>6942</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>52446</v>
+        <v>14286</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,49 +2630,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>13669</v>
+        <v>17595</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>10173</v>
+        <v>14066</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N5" s="7">
-        <v>23842</v>
+        <v>31661</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,10 +2681,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D6" s="7">
-        <v>42113</v>
+        <v>24939</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2317,10 +2696,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>34175</v>
+        <v>21008</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2332,10 +2711,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="N6" s="7">
-        <v>76288</v>
+        <v>45947</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2355,49 +2734,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>22749</v>
+        <v>9767</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>16773</v>
+        <v>8960</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N7" s="7">
-        <v>39522</v>
+        <v>18727</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,49 +2785,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D8" s="7">
-        <v>6532</v>
+        <v>28654</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I8" s="7">
-        <v>10065</v>
+        <v>19328</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="N8" s="7">
-        <v>16597</v>
+        <v>47982</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,10 +2836,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7">
-        <v>29281</v>
+        <v>38421</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2472,10 +2851,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I9" s="7">
-        <v>26838</v>
+        <v>28288</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2487,10 +2866,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="N9" s="7">
-        <v>56119</v>
+        <v>66709</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2510,49 +2889,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>16975</v>
+        <v>3778</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>13697</v>
+        <v>7013</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>30672</v>
+        <v>10792</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,49 +2940,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7">
-        <v>14051</v>
+        <v>11183</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I11" s="7">
-        <v>8159</v>
+        <v>13186</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N11" s="7">
-        <v>22210</v>
+        <v>24368</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,10 +2991,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7">
-        <v>31026</v>
+        <v>14961</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2627,10 +3006,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I12" s="7">
-        <v>21856</v>
+        <v>20199</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2642,10 +3021,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="N12" s="7">
-        <v>52882</v>
+        <v>35160</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2659,55 +3038,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>68167</v>
+        <v>13362</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>54472</v>
+        <v>5482</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="N13" s="7">
-        <v>122640</v>
+        <v>18844</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,49 +3095,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>34252</v>
+        <v>10736</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I14" s="7">
-        <v>28397</v>
+        <v>7893</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="N14" s="7">
-        <v>62649</v>
+        <v>18629</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,55 +3146,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7">
+        <v>24098</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>20</v>
+      </c>
+      <c r="I15" s="7">
+        <v>13375</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>55</v>
+      </c>
+      <c r="N15" s="7">
+        <v>37473</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>48</v>
+      </c>
+      <c r="D16" s="7">
+        <v>34252</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="7">
+        <v>42</v>
+      </c>
+      <c r="I16" s="7">
+        <v>28397</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M16" s="7">
+        <v>90</v>
+      </c>
+      <c r="N16" s="7">
+        <v>62649</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>96</v>
+      </c>
+      <c r="D17" s="7">
+        <v>68167</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="7">
+        <v>80</v>
+      </c>
+      <c r="I17" s="7">
+        <v>54472</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M17" s="7">
+        <v>176</v>
+      </c>
+      <c r="N17" s="7">
+        <v>122640</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>144</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>102419</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>122</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>82869</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>266</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>185289</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2828,8 +3368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C29DF1-FAFC-4A4F-96A8-F3C9575CCE6C}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0471C509-3449-49FE-AF13-DF35FFBAEBAB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2845,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2946,49 +3486,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>12761</v>
+        <v>3001</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>9556</v>
+        <v>4854</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>22317</v>
+        <v>7856</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,49 +3537,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>8487</v>
+        <v>9630</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>8465</v>
+        <v>4828</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N5" s="7">
-        <v>16953</v>
+        <v>14457</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>21248</v>
+        <v>12631</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3063,10 +3603,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>18021</v>
+        <v>9682</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3078,10 +3618,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="N6" s="7">
-        <v>39270</v>
+        <v>22313</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3101,49 +3641,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7">
+        <v>11709</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H7" s="7">
         <v>10</v>
       </c>
-      <c r="D7" s="7">
-        <v>6899</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="7">
-        <v>15</v>
-      </c>
       <c r="I7" s="7">
-        <v>10111</v>
+        <v>6197</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N7" s="7">
-        <v>17010</v>
+        <v>17905</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,49 +3692,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>7603</v>
+        <v>9360</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I8" s="7">
-        <v>4514</v>
+        <v>12319</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N8" s="7">
-        <v>12117</v>
+        <v>21680</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,10 +3743,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7">
-        <v>14502</v>
+        <v>21069</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3218,10 +3758,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I9" s="7">
-        <v>14625</v>
+        <v>18516</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3233,10 +3773,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="N9" s="7">
-        <v>29127</v>
+        <v>39585</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3256,49 +3796,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4535</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3337</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M10" s="7">
         <v>11</v>
       </c>
-      <c r="D10" s="7">
-        <v>8012</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H10" s="7">
-        <v>11</v>
-      </c>
-      <c r="I10" s="7">
-        <v>8379</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M10" s="7">
-        <v>22</v>
-      </c>
       <c r="N10" s="7">
-        <v>16391</v>
+        <v>7872</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,49 +3847,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>7684</v>
+        <v>1396</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
+        <v>7</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5042</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M11" s="7">
         <v>9</v>
       </c>
-      <c r="I11" s="7">
-        <v>6097</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M11" s="7">
-        <v>19</v>
-      </c>
       <c r="N11" s="7">
-        <v>13782</v>
+        <v>6438</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>15696</v>
+        <v>5931</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3373,25 +3913,25 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8379</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
         <v>20</v>
       </c>
-      <c r="I12" s="7">
-        <v>14476</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="7">
-        <v>41</v>
-      </c>
       <c r="N12" s="7">
-        <v>30173</v>
+        <v>14310</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3405,55 +3945,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>27672</v>
+        <v>4531</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>28046</v>
+        <v>4688</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="M13" s="7">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>55718</v>
+        <v>9219</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,49 +4002,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>23775</v>
+        <v>7285</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>19077</v>
+        <v>5857</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="N14" s="7">
-        <v>42852</v>
+        <v>13142</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,55 +4053,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7">
+        <v>11816</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>15</v>
+      </c>
+      <c r="I15" s="7">
+        <v>10545</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>31</v>
+      </c>
+      <c r="N15" s="7">
+        <v>22361</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>34</v>
+      </c>
+      <c r="D16" s="7">
+        <v>23775</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H16" s="7">
+        <v>30</v>
+      </c>
+      <c r="I16" s="7">
+        <v>19077</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="M16" s="7">
+        <v>64</v>
+      </c>
+      <c r="N16" s="7">
+        <v>42852</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>40</v>
+      </c>
+      <c r="D17" s="7">
+        <v>27672</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H17" s="7">
+        <v>42</v>
+      </c>
+      <c r="I17" s="7">
+        <v>28046</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M17" s="7">
+        <v>82</v>
+      </c>
+      <c r="N17" s="7">
+        <v>55718</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>74</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>51447</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>72</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>47123</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>146</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>98570</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3574,8 +4275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7E7224-4DB0-4AC3-9AC5-C561D631E935}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01261915-B276-45D1-B7E6-22B7539FD25C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3591,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3692,49 +4393,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>14143</v>
+        <v>753</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>7741</v>
+        <v>2114</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="M4" s="7">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>21884</v>
+        <v>2868</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,49 +4444,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7">
+        <v>9688</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" s="7">
         <v>9</v>
       </c>
-      <c r="D5" s="7">
-        <v>4973</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H5" s="7">
-        <v>7</v>
-      </c>
       <c r="I5" s="7">
-        <v>3546</v>
+        <v>5285</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N5" s="7">
-        <v>8519</v>
+        <v>14972</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,10 +4495,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>19116</v>
+        <v>10441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3809,10 +4510,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I6" s="7">
-        <v>11287</v>
+        <v>7399</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3824,10 +4525,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N6" s="7">
-        <v>30403</v>
+        <v>17840</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3847,49 +4548,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>17669</v>
+        <v>7883</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>5341</v>
+        <v>4990</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N7" s="7">
-        <v>23010</v>
+        <v>12874</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,49 +4599,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7">
-        <v>6840</v>
+        <v>13346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>6364</v>
+        <v>4511</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="M8" s="7">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N8" s="7">
-        <v>13204</v>
+        <v>17855</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,10 +4650,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D9" s="7">
-        <v>24509</v>
+        <v>21229</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3967,7 +4668,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>11705</v>
+        <v>9501</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3979,10 +4680,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N9" s="7">
-        <v>36214</v>
+        <v>30729</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4002,49 +4703,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>29219</v>
+        <v>9418</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H10" s="7">
+        <v>10</v>
+      </c>
+      <c r="I10" s="7">
+        <v>7758</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H10" s="7">
-        <v>38</v>
-      </c>
-      <c r="I10" s="7">
-        <v>25965</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>271</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="M10" s="7">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>55185</v>
+        <v>17176</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>96</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,49 +4754,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>16707</v>
+        <v>12453</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>11134</v>
+        <v>9030</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="M11" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N11" s="7">
-        <v>27840</v>
+        <v>21483</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>104</v>
+        <v>334</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,10 +4805,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7">
-        <v>45926</v>
+        <v>21871</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4119,10 +4820,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I12" s="7">
-        <v>37099</v>
+        <v>16788</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4134,10 +4835,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="N12" s="7">
-        <v>83025</v>
+        <v>38659</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4151,55 +4852,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>61031</v>
+        <v>10465</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="H13" s="7">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>39047</v>
+        <v>6181</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>100079</v>
+        <v>16646</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,49 +4909,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>28520</v>
+        <v>25546</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I14" s="7">
-        <v>21044</v>
+        <v>20223</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="N14" s="7">
-        <v>49563</v>
+        <v>45768</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,55 +4960,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>36011</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>36</v>
+      </c>
+      <c r="I15" s="7">
+        <v>26404</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>73</v>
+      </c>
+      <c r="N15" s="7">
+        <v>62414</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7">
+        <v>28520</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="7">
+        <v>29</v>
+      </c>
+      <c r="I16" s="7">
+        <v>21044</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="M16" s="7">
+        <v>69</v>
+      </c>
+      <c r="N16" s="7">
+        <v>49563</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>80</v>
+      </c>
+      <c r="D17" s="7">
+        <v>61031</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H17" s="7">
+        <v>59</v>
+      </c>
+      <c r="I17" s="7">
+        <v>39047</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="M17" s="7">
+        <v>139</v>
+      </c>
+      <c r="N17" s="7">
+        <v>100079</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>120</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>89551</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>88</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>60091</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>208</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>149642</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP09-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD0EBE1B-526F-489F-B4F4-265B26B3CA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02879256-AD8B-4074-8ECE-E32B8C012E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DA63F55B-77B6-4080-8591-8C54275654FE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{315772E6-845B-4B32-8DAE-195754A52D71}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,28 +77,28 @@
     <t>29,58%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
   </si>
   <si>
     <t>29,48%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
   </si>
   <si>
     <t>29,54%</t>
   </si>
   <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>70,42%</t>
   </si>
   <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>70,52%</t>
   </si>
   <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>70,46%</t>
   </si>
   <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>21,06%</t>
   </si>
   <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
   </si>
   <si>
     <t>16,0%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
   </si>
   <si>
     <t>18,97%</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
   </si>
   <si>
     <t>78,94%</t>
   </si>
   <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>84,0%</t>
   </si>
   <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
   </si>
   <si>
     <t>81,03%</t>
   </si>
   <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -197,55 +197,55 @@
     <t>40,9%</t>
   </si>
   <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
   </si>
   <si>
     <t>25,02%</t>
   </si>
   <si>
-    <t>9,72%</t>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
   </si>
   <si>
     <t>50,7%</t>
   </si>
   <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
+    <t>79,38%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -254,109 +254,109 @@
     <t>33,18%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
   </si>
   <si>
     <t>31,48%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
   </si>
   <si>
     <t>66,82%</t>
   </si>
   <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>68,52%</t>
   </si>
   <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>67,34%</t>
   </si>
   <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
   </si>
   <si>
     <t>28,8%</t>
   </si>
   <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
   </si>
   <si>
     <t>22,76%</t>
   </si>
   <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
   </si>
   <si>
     <t>26,37%</t>
   </si>
   <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
   </si>
   <si>
     <t>71,2%</t>
   </si>
   <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
   </si>
   <si>
     <t>77,24%</t>
   </si>
   <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
   </si>
   <si>
     <t>73,63%</t>
   </si>
   <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -368,334 +368,334 @@
     <t>29,45%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
   </si>
   <si>
     <t>33,05%</t>
   </si>
   <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
   </si>
   <si>
     <t>31,09%</t>
   </si>
   <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
   </si>
   <si>
     <t>70,55%</t>
   </si>
   <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
   </si>
   <si>
     <t>66,95%</t>
   </si>
   <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
   </si>
   <si>
     <t>68,91%</t>
   </si>
   <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
   </si>
   <si>
     <t>25,42%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
   </si>
   <si>
     <t>31,67%</t>
   </si>
   <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
   </si>
   <si>
     <t>28,07%</t>
   </si>
   <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
   </si>
   <si>
     <t>74,58%</t>
   </si>
   <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
   </si>
   <si>
     <t>68,33%</t>
   </si>
   <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
   </si>
   <si>
     <t>71,93%</t>
   </si>
   <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
   </si>
   <si>
     <t>25,26%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
   </si>
   <si>
     <t>34,72%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
   </si>
   <si>
     <t>30,69%</t>
   </si>
   <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
   </si>
   <si>
     <t>74,74%</t>
   </si>
   <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
   </si>
   <si>
     <t>65,28%</t>
   </si>
   <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
   </si>
   <si>
     <t>69,31%</t>
   </si>
   <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
   </si>
   <si>
     <t>55,45%</t>
   </si>
   <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
   </si>
   <si>
     <t>40,99%</t>
   </si>
   <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
   </si>
   <si>
     <t>50,29%</t>
   </si>
   <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
   </si>
   <si>
     <t>44,55%</t>
   </si>
   <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
   </si>
   <si>
     <t>59,01%</t>
   </si>
   <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
   </si>
   <si>
     <t>49,71%</t>
   </si>
   <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
   </si>
   <si>
     <t>33,44%</t>
   </si>
   <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
   </si>
   <si>
     <t>34,27%</t>
   </si>
   <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
   </si>
   <si>
     <t>33,81%</t>
   </si>
   <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
   </si>
   <si>
     <t>66,56%</t>
   </si>
   <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
   </si>
   <si>
     <t>65,73%</t>
   </si>
   <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
   </si>
   <si>
     <t>66,19%</t>
   </si>
   <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2015 (Tasa respuesta: 6,87%)</t>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2016 (Tasa respuesta: 6,87%)</t>
   </si>
   <si>
     <t>23,76%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
   </si>
   <si>
     <t>50,14%</t>
   </si>
   <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
   </si>
   <si>
     <t>35,21%</t>
   </si>
   <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
   </si>
   <si>
     <t>76,24%</t>
   </si>
   <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
   </si>
   <si>
     <t>49,86%</t>
   </si>
   <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
   </si>
   <si>
     <t>64,79%</t>
   </si>
   <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
   </si>
   <si>
     <t>55,57%</t>
   </si>
   <si>
-    <t>37,24%</t>
+    <t>36,63%</t>
   </si>
   <si>
     <t>72,44%</t>
@@ -704,19 +704,19 @@
     <t>33,47%</t>
   </si>
   <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
   </si>
   <si>
     <t>45,23%</t>
   </si>
   <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
   </si>
   <si>
     <t>44,43%</t>
@@ -725,31 +725,31 @@
     <t>27,56%</t>
   </si>
   <si>
-    <t>62,76%</t>
+    <t>63,37%</t>
   </si>
   <si>
     <t>66,53%</t>
   </si>
   <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
   </si>
   <si>
     <t>54,77%</t>
   </si>
   <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
   </si>
   <si>
     <t>76,45%</t>
   </si>
   <si>
-    <t>30,09%</t>
+    <t>37,61%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -758,19 +758,19 @@
     <t>39,83%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
   </si>
   <si>
     <t>55,01%</t>
   </si>
   <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
   </si>
   <si>
     <t>23,55%</t>
@@ -779,127 +779,133 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>69,91%</t>
+    <t>62,39%</t>
   </si>
   <si>
     <t>60,17%</t>
   </si>
   <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
   </si>
   <si>
     <t>44,99%</t>
   </si>
   <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
   </si>
   <si>
     <t>38,34%</t>
   </si>
   <si>
-    <t>17,62%</t>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
   </si>
   <si>
     <t>44,46%</t>
   </si>
   <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
   </si>
   <si>
     <t>41,23%</t>
   </si>
   <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
   </si>
   <si>
     <t>61,66%</t>
   </si>
   <si>
-    <t>82,38%</t>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
   </si>
   <si>
     <t>55,54%</t>
   </si>
   <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
   </si>
   <si>
     <t>58,77%</t>
   </si>
   <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>46,21%</t>
   </si>
   <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
   </si>
   <si>
     <t>40,48%</t>
   </si>
   <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
   </si>
   <si>
     <t>43,47%</t>
   </si>
   <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
   </si>
   <si>
     <t>53,79%</t>
   </si>
   <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
   </si>
   <si>
     <t>59,52%</t>
   </si>
   <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
   </si>
   <si>
     <t>56,53%</t>
   </si>
   <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
   </si>
   <si>
     <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2023 (Tasa respuesta: 10,83%)</t>
@@ -908,241 +914,235 @@
     <t>7,22%</t>
   </si>
   <si>
-    <t>33,86%</t>
+    <t>28,54%</t>
   </si>
   <si>
     <t>28,58%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
   </si>
   <si>
     <t>16,08%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
   </si>
   <si>
     <t>92,78%</t>
   </si>
   <si>
-    <t>66,14%</t>
+    <t>71,46%</t>
   </si>
   <si>
     <t>71,42%</t>
   </si>
   <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
   </si>
   <si>
     <t>83,92%</t>
   </si>
   <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
   </si>
   <si>
     <t>37,14%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
   </si>
   <si>
     <t>52,53%</t>
   </si>
   <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
   </si>
   <si>
     <t>41,89%</t>
   </si>
   <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
+    <t>57,06%</t>
   </si>
   <si>
     <t>62,86%</t>
   </si>
   <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
   </si>
   <si>
     <t>47,47%</t>
   </si>
   <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
   </si>
   <si>
     <t>58,11%</t>
   </si>
   <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
+    <t>42,94%</t>
   </si>
   <si>
     <t>43,06%</t>
   </si>
   <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
   </si>
   <si>
     <t>56,94%</t>
   </si>
   <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
   </si>
   <si>
     <t>23,41%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
+    <t>9,19%</t>
   </si>
   <si>
     <t>26,67%</t>
   </si>
   <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
   </si>
   <si>
     <t>76,59%</t>
   </si>
   <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>90,81%</t>
   </si>
   <si>
     <t>73,33%</t>
   </si>
   <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
   </si>
   <si>
     <t>31,85%</t>
   </si>
   <si>
-    <t>22,22%</t>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
   </si>
   <si>
     <t>35,02%</t>
   </si>
   <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
   </si>
   <si>
     <t>33,12%</t>
   </si>
   <si>
-    <t>25,83%</t>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
   </si>
   <si>
     <t>68,15%</t>
   </si>
   <si>
-    <t>77,78%</t>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
   </si>
   <si>
     <t>64,98%</t>
   </si>
   <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
   </si>
   <si>
     <t>66,88%</t>
   </si>
   <si>
-    <t>74,17%</t>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574379EA-F8DF-4271-AEE7-EB85F04DE7E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC74C79C-142A-4A92-B9D2-7B0711E5C4AE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2461,7 +2461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6F7BEA-4D08-4379-9546-81E2DE0D3A45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B8F626-463C-402D-8909-E20DA52F4A5F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3368,7 +3368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0471C509-3449-49FE-AF13-DF35FFBAEBAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921075FE-7B9D-4377-9912-0A0CD8B7B7E0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3963,7 +3963,7 @@
         <v>254</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3972,13 +3972,13 @@
         <v>4688</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3987,13 +3987,13 @@
         <v>9219</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4008,13 @@
         <v>7285</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>263</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -4023,13 +4023,13 @@
         <v>5857</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -4038,13 +4038,13 @@
         <v>13142</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4112,13 @@
         <v>23775</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -4127,13 +4127,13 @@
         <v>19077</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>64</v>
@@ -4142,13 +4142,13 @@
         <v>42852</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4163,13 @@
         <v>27672</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -4178,13 +4178,13 @@
         <v>28046</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M17" s="7">
         <v>82</v>
@@ -4193,13 +4193,13 @@
         <v>55718</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,7 +4275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01261915-B276-45D1-B7E6-22B7539FD25C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFA2AC8-6D0C-4F57-8DCF-2E81A89DA274}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4292,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4399,13 +4399,13 @@
         <v>753</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>245</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4414,13 +4414,13 @@
         <v>2114</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -4429,13 +4429,13 @@
         <v>2868</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,10 +4450,10 @@
         <v>9688</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>237</v>
@@ -4465,13 +4465,13 @@
         <v>5285</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -4480,13 +4480,13 @@
         <v>14972</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4554,13 @@
         <v>7883</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4569,13 +4569,13 @@
         <v>4990</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -4584,13 +4584,13 @@
         <v>12874</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4605,13 @@
         <v>13346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -4620,13 +4620,13 @@
         <v>4511</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M8" s="7">
         <v>31</v>
@@ -4635,13 +4635,13 @@
         <v>17855</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,7 +4724,7 @@
         <v>7758</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>325</v>
@@ -4775,7 +4775,7 @@
         <v>9030</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>332</v>
@@ -4864,13 +4864,13 @@
         <v>10465</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -4879,13 +4879,13 @@
         <v>6181</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>340</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>341</v>
+        <v>121</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -4894,13 +4894,13 @@
         <v>16646</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4915,13 @@
         <v>25546</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -4930,13 +4930,13 @@
         <v>20223</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>349</v>
+        <v>113</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
         <v>54</v>
@@ -4945,13 +4945,13 @@
         <v>45768</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5019,13 @@
         <v>28520</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>51</v>
+        <v>352</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -5034,13 +5034,13 @@
         <v>21044</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M16" s="7">
         <v>69</v>
@@ -5049,13 +5049,13 @@
         <v>49563</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5070,13 @@
         <v>61031</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H17" s="7">
         <v>59</v>
@@ -5085,13 +5085,13 @@
         <v>39047</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
@@ -5100,10 +5100,10 @@
         <v>100079</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>367</v>

--- a/data/trans_orig/IP09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02879256-AD8B-4074-8ECE-E32B8C012E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48BA63A9-837B-487F-A63B-7CFB2B9D9887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{315772E6-845B-4B32-8DAE-195754A52D71}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A650FC1E-8487-4E3F-A3E7-479E8E44F804}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
-  <si>
-    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2007 (Tasa respuesta: 9,84%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="366">
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2007 (Tasa respuesta: 9,84%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
     <t>29,58%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
   </si>
   <si>
     <t>29,54%</t>
   </si>
   <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
     <t>70,42%</t>
   </si>
   <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
   </si>
   <si>
     <t>70,46%</t>
   </si>
   <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,199 +137,208 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
   </si>
   <si>
     <t>18,97%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
   </si>
   <si>
     <t>78,94%</t>
   </si>
   <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
   </si>
   <si>
     <t>81,03%</t>
   </si>
   <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
     <t>40,9%</t>
   </si>
   <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
   </si>
   <si>
     <t>33,33%</t>
   </si>
   <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
   </si>
   <si>
     <t>59,1%</t>
   </si>
   <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
   </si>
   <si>
     <t>66,67%</t>
   </si>
   <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
     <t>33,18%</t>
   </si>
   <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>66,82%</t>
   </si>
   <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
   </si>
   <si>
     <t>67,34%</t>
   </si>
   <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
   </si>
   <si>
     <t>28,8%</t>
   </si>
   <si>
-    <t>21,16%</t>
+    <t>21,67%</t>
   </si>
   <si>
     <t>36,82%</t>
   </si>
   <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
     <t>26,37%</t>
   </si>
   <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
   </si>
   <si>
     <t>71,2%</t>
@@ -338,808 +347,793 @@
     <t>63,18%</t>
   </si>
   <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
+    <t>78,33%</t>
   </si>
   <si>
     <t>73,63%</t>
   </si>
   <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
-    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2012 (Tasa respuesta: 12,67%)</t>
+    <t>Menores según si padecen actualmente esa dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2012 (Tasa respuesta: 12,67%)</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
   </si>
   <si>
     <t>29,45%</t>
   </si>
   <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2016 (Tasa respuesta: 6,87%)</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2023 (Tasa respuesta: 10,83%)</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
   </si>
   <si>
     <t>50,95%</t>
   </si>
   <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2016 (Tasa respuesta: 6,87%)</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
   </si>
   <si>
     <t>18,61%</t>
   </si>
   <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
   </si>
   <si>
     <t>81,39%</t>
   </si>
   <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2023 (Tasa respuesta: 10,83%)</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
+    <t>57,42%</t>
   </si>
   <si>
     <t>74,29%</t>
@@ -1554,7 +1548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC74C79C-142A-4A92-B9D2-7B0711E5C4AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2B129E-1333-4EE3-B81E-05C5ADAA0BA6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1672,10 +1666,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>4594</v>
+        <v>2949</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1687,10 +1681,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>2949</v>
+        <v>4594</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1723,10 +1717,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>10936</v>
+        <v>7056</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1738,10 +1732,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>7056</v>
+        <v>10936</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1774,25 +1768,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10005</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>23</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>15530</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>15</v>
-      </c>
-      <c r="I6" s="7">
-        <v>10005</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1827,10 +1821,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>7400</v>
+        <v>3945</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1842,10 +1836,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>3945</v>
+        <v>7400</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1878,10 +1872,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7">
-        <v>27741</v>
+        <v>20720</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1893,10 +1887,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I8" s="7">
-        <v>20720</v>
+        <v>27741</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1929,25 +1923,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>36</v>
+      </c>
+      <c r="D9" s="7">
+        <v>24665</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>52</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>35141</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>36</v>
-      </c>
-      <c r="I9" s="7">
-        <v>24665</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1982,10 +1976,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>6151</v>
+        <v>3427</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1997,10 +1991,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>3427</v>
+        <v>6151</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2033,10 +2027,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>8887</v>
+        <v>10272</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2048,10 +2042,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I11" s="7">
-        <v>10272</v>
+        <v>8887</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2084,25 +2078,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7">
+        <v>13699</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>22</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>15038</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>20</v>
-      </c>
-      <c r="I12" s="7">
-        <v>13699</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2137,10 +2131,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>5896</v>
+        <v>2479</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2152,10 +2146,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>2479</v>
+        <v>5896</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2188,10 +2182,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>11873</v>
+        <v>5395</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2203,10 +2197,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I14" s="7">
-        <v>5395</v>
+        <v>11873</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2239,25 +2233,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7">
+        <v>7874</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>27</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>17769</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>12</v>
-      </c>
-      <c r="I15" s="7">
-        <v>7874</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2292,10 +2286,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D16" s="7">
-        <v>24042</v>
+        <v>12800</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2307,10 +2301,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I16" s="7">
-        <v>12800</v>
+        <v>24042</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -2343,10 +2337,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D17" s="7">
-        <v>59436</v>
+        <v>43443</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2358,10 +2352,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="I17" s="7">
-        <v>43443</v>
+        <v>59436</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2394,25 +2388,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>83</v>
+      </c>
+      <c r="D18" s="7">
+        <v>56243</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>124</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>83478</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>83</v>
-      </c>
-      <c r="I18" s="7">
-        <v>56243</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2461,7 +2455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B8F626-463C-402D-8909-E20DA52F4A5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F99A90C-3D99-4C92-B7C0-94FD3D4E7EE0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2579,10 +2573,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>7344</v>
+        <v>6942</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>108</v>
@@ -2594,10 +2588,10 @@
         <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>6942</v>
+        <v>7344</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>111</v>
@@ -2630,10 +2624,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7">
-        <v>17595</v>
+        <v>14066</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>117</v>
@@ -2645,10 +2639,10 @@
         <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>14066</v>
+        <v>17595</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>120</v>
@@ -2681,25 +2675,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7">
+        <v>21008</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>35</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>24939</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>32</v>
-      </c>
-      <c r="I6" s="7">
-        <v>21008</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2737,7 +2731,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>9767</v>
+        <v>8960</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>126</v>
@@ -2752,7 +2746,7 @@
         <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>8960</v>
+        <v>9767</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>129</v>
@@ -2785,10 +2779,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7">
-        <v>28654</v>
+        <v>19328</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>135</v>
@@ -2800,10 +2794,10 @@
         <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I8" s="7">
-        <v>19328</v>
+        <v>28654</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>138</v>
@@ -2836,25 +2830,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7">
+        <v>28288</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>53</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>38421</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>42</v>
-      </c>
-      <c r="I9" s="7">
-        <v>28288</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2889,10 +2883,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>3778</v>
+        <v>7013</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>144</v>
@@ -2904,10 +2898,10 @@
         <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>7013</v>
+        <v>3778</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>147</v>
@@ -2940,10 +2934,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7">
-        <v>11183</v>
+        <v>13186</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>153</v>
@@ -2955,10 +2949,10 @@
         <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I11" s="7">
-        <v>13186</v>
+        <v>11183</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>156</v>
@@ -2991,25 +2985,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7">
+        <v>20199</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>21</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>14961</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>28</v>
-      </c>
-      <c r="I12" s="7">
-        <v>20199</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3044,10 +3038,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>13362</v>
+        <v>5482</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>162</v>
@@ -3059,10 +3053,10 @@
         <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>5482</v>
+        <v>13362</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>165</v>
@@ -3095,10 +3089,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D14" s="7">
-        <v>10736</v>
+        <v>7893</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>171</v>
@@ -3110,10 +3104,10 @@
         <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I14" s="7">
-        <v>7893</v>
+        <v>10736</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>174</v>
@@ -3134,10 +3128,10 @@
         <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,25 +3140,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7">
+        <v>13375</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>35</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>24098</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>20</v>
-      </c>
-      <c r="I15" s="7">
-        <v>13375</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3199,34 +3193,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>42</v>
+      </c>
+      <c r="D16" s="7">
+        <v>28397</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="7">
         <v>48</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>34252</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="H16" s="7">
-        <v>42</v>
-      </c>
-      <c r="I16" s="7">
-        <v>28397</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -3235,13 +3229,13 @@
         <v>62649</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,34 +3244,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>80</v>
+      </c>
+      <c r="D17" s="7">
+        <v>54472</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" s="7">
         <v>96</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>68167</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H17" s="7">
-        <v>80</v>
-      </c>
-      <c r="I17" s="7">
-        <v>54472</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
         <v>176</v>
@@ -3286,13 +3280,13 @@
         <v>122640</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,25 +3295,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>122</v>
+      </c>
+      <c r="D18" s="7">
+        <v>82869</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>144</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>102419</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>122</v>
-      </c>
-      <c r="I18" s="7">
-        <v>82869</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3368,7 +3362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921075FE-7B9D-4377-9912-0A0CD8B7B7E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFE862D-EA15-4E3D-8753-3F24ADB0CE2E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3385,7 +3379,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3486,34 +3480,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4854</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="7">
         <v>5</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>3001</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H4" s="7">
-        <v>8</v>
-      </c>
-      <c r="I4" s="7">
-        <v>4854</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3522,13 +3516,13 @@
         <v>7856</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,34 +3531,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4828</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="7">
         <v>14</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>9630</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4828</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -3573,13 +3567,13 @@
         <v>14457</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,25 +3582,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9682</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>19</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>12631</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>16</v>
-      </c>
-      <c r="I6" s="7">
-        <v>9682</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3641,34 +3635,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6197</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="7">
         <v>17</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>11709</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H7" s="7">
-        <v>10</v>
-      </c>
-      <c r="I7" s="7">
-        <v>6197</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -3677,13 +3671,13 @@
         <v>17905</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,34 +3686,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7">
+        <v>12319</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H8" s="7">
         <v>14</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>9360</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H8" s="7">
-        <v>19</v>
-      </c>
-      <c r="I8" s="7">
-        <v>12319</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
         <v>33</v>
@@ -3728,13 +3722,13 @@
         <v>21680</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,25 +3737,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>29</v>
+      </c>
+      <c r="D9" s="7">
+        <v>18516</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>31</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>21069</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>29</v>
-      </c>
-      <c r="I9" s="7">
-        <v>18516</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3796,34 +3790,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3337</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>4535</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3337</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3832,13 +3826,13 @@
         <v>7872</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,34 +3841,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5042</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>1396</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H11" s="7">
-        <v>7</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5042</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -3883,13 +3877,13 @@
         <v>6438</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,25 +3892,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7">
+        <v>8379</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>8</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>5931</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>12</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8379</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3951,34 +3945,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4688</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>4531</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4688</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3987,13 +3981,13 @@
         <v>9219</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,34 +3996,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5857</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H14" s="7">
         <v>10</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>7285</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H14" s="7">
-        <v>8</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5857</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -4038,13 +4032,13 @@
         <v>13142</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,25 +4047,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7">
+        <v>10545</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>16</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>11816</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>15</v>
-      </c>
-      <c r="I15" s="7">
-        <v>10545</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4106,34 +4100,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7">
+        <v>19077</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H16" s="7">
         <v>34</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>23775</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H16" s="7">
-        <v>30</v>
-      </c>
-      <c r="I16" s="7">
-        <v>19077</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>64</v>
@@ -4142,13 +4136,13 @@
         <v>42852</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,34 +4151,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>42</v>
+      </c>
+      <c r="D17" s="7">
+        <v>28046</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H17" s="7">
         <v>40</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>27672</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H17" s="7">
-        <v>42</v>
-      </c>
-      <c r="I17" s="7">
-        <v>28046</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>82</v>
@@ -4193,13 +4187,13 @@
         <v>55718</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,25 +4202,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>72</v>
+      </c>
+      <c r="D18" s="7">
+        <v>47123</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>74</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>51447</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>72</v>
-      </c>
-      <c r="I18" s="7">
-        <v>47123</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4275,7 +4269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFA2AC8-6D0C-4F57-8DCF-2E81A89DA274}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712BD609-B407-4F3A-9447-B85AF9426542}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4292,7 +4286,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4393,49 +4387,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2049</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
-        <v>753</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H4" s="7">
-        <v>4</v>
-      </c>
       <c r="I4" s="7">
-        <v>2114</v>
+        <v>1028</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>2868</v>
+        <v>3077</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,49 +4438,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5358</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H5" s="7">
         <v>18</v>
       </c>
-      <c r="D5" s="7">
-        <v>9688</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H5" s="7">
-        <v>9</v>
-      </c>
       <c r="I5" s="7">
-        <v>5285</v>
+        <v>10421</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
       </c>
       <c r="N5" s="7">
-        <v>14972</v>
+        <v>15779</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,25 +4489,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
+        <v>7407</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>19</v>
       </c>
-      <c r="D6" s="7">
-        <v>10441</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>13</v>
-      </c>
       <c r="I6" s="7">
-        <v>7399</v>
+        <v>11449</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4528,7 +4522,7 @@
         <v>32</v>
       </c>
       <c r="N6" s="7">
-        <v>17840</v>
+        <v>18856</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4548,49 +4542,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4795</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H7" s="7">
         <v>14</v>
       </c>
-      <c r="D7" s="7">
-        <v>7883</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H7" s="7">
-        <v>9</v>
-      </c>
       <c r="I7" s="7">
-        <v>4990</v>
+        <v>8277</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
       </c>
       <c r="N7" s="7">
-        <v>12874</v>
+        <v>13072</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,49 +4593,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4497</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="7">
         <v>23</v>
       </c>
-      <c r="D8" s="7">
-        <v>13346</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>14382</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H8" s="7">
-        <v>8</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4511</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M8" s="7">
         <v>31</v>
       </c>
       <c r="N8" s="7">
-        <v>17855</v>
+        <v>18878</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,25 +4644,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7">
+        <v>9292</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>37</v>
       </c>
-      <c r="D9" s="7">
-        <v>21229</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>17</v>
-      </c>
       <c r="I9" s="7">
-        <v>9501</v>
+        <v>22659</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4683,7 +4677,7 @@
         <v>54</v>
       </c>
       <c r="N9" s="7">
-        <v>30729</v>
+        <v>31950</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4703,49 +4697,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <v>7716</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H10" s="7">
         <v>12</v>
       </c>
-      <c r="D10" s="7">
-        <v>9418</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H10" s="7">
-        <v>10</v>
-      </c>
       <c r="I10" s="7">
-        <v>7758</v>
+        <v>9801</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>325</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>326</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>17176</v>
+        <v>17517</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,49 +4748,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>12</v>
+      </c>
+      <c r="D11" s="7">
+        <v>9022</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H11" s="7">
         <v>15</v>
       </c>
-      <c r="D11" s="7">
-        <v>12453</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H11" s="7">
-        <v>12</v>
-      </c>
       <c r="I11" s="7">
-        <v>9030</v>
+        <v>13628</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>332</v>
+        <v>250</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>333</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
       </c>
       <c r="N11" s="7">
-        <v>21483</v>
+        <v>22650</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>217</v>
+        <v>329</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,25 +4799,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7">
+        <v>16738</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>27</v>
       </c>
-      <c r="D12" s="7">
-        <v>21871</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>22</v>
-      </c>
       <c r="I12" s="7">
-        <v>16788</v>
+        <v>23429</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4838,7 +4832,7 @@
         <v>49</v>
       </c>
       <c r="N12" s="7">
-        <v>38659</v>
+        <v>40167</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4858,49 +4852,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>9341</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H13" s="7">
         <v>13</v>
       </c>
-      <c r="D13" s="7">
-        <v>10465</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>10495</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6181</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>16646</v>
+        <v>19836</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,31 +4903,31 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7">
+        <v>20005</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H14" s="7">
         <v>24</v>
       </c>
-      <c r="D14" s="7">
-        <v>25546</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>30997</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H14" s="7">
-        <v>30</v>
-      </c>
-      <c r="I14" s="7">
-        <v>20223</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>346</v>
@@ -4942,7 +4936,7 @@
         <v>54</v>
       </c>
       <c r="N14" s="7">
-        <v>45768</v>
+        <v>51002</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>347</v>
@@ -4960,25 +4954,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7">
+        <v>29346</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>37</v>
       </c>
-      <c r="D15" s="7">
-        <v>36011</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>36</v>
-      </c>
       <c r="I15" s="7">
-        <v>26404</v>
+        <v>41492</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4993,7 +4987,7 @@
         <v>73</v>
       </c>
       <c r="N15" s="7">
-        <v>62414</v>
+        <v>70838</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5013,10 +5007,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7">
-        <v>28520</v>
+        <v>23901</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>350</v>
@@ -5028,10 +5022,10 @@
         <v>352</v>
       </c>
       <c r="H16" s="7">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I16" s="7">
-        <v>21044</v>
+        <v>29601</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>353</v>
@@ -5046,16 +5040,16 @@
         <v>69</v>
       </c>
       <c r="N16" s="7">
-        <v>49563</v>
+        <v>53502</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,49 +5058,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>59</v>
+      </c>
+      <c r="D17" s="7">
+        <v>38881</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H17" s="7">
         <v>80</v>
       </c>
-      <c r="D17" s="7">
-        <v>61031</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>69428</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="H17" s="7">
-        <v>59</v>
-      </c>
-      <c r="I17" s="7">
-        <v>39047</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
       </c>
       <c r="N17" s="7">
-        <v>100079</v>
+        <v>108309</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,25 +5109,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>88</v>
+      </c>
+      <c r="D18" s="7">
+        <v>62782</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>120</v>
       </c>
-      <c r="D18" s="7">
-        <v>89551</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>88</v>
-      </c>
       <c r="I18" s="7">
-        <v>60091</v>
+        <v>99029</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5148,7 +5142,7 @@
         <v>208</v>
       </c>
       <c r="N18" s="7">
-        <v>149642</v>
+        <v>161811</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
